--- a/dados_teste_CLASSIFICADO.xlsx
+++ b/dados_teste_CLASSIFICADO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\CDADOS\projeto1-cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Cunha\Desktop\Atividades\C-Dados\CDADOS - DP\projeto1-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245FF1E1-F7C5-4461-9EB9-289578A437F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017AC4D-2DB7-4009-9379-C4D48437BC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Mensagem</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>Não é o primeiro livro da Record que oxida em menos de três meses. E olha que meus livros são bem guardados e conservados. O papel da maioria das edições da Record é desse jeito, fica amarelo em pouco tempo. É triste.</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -1137,21 +1140,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1839,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1879,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1975,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2023,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -2415,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
